--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT15" t="n">
         <v>0.8</v>
@@ -4557,7 +4557,7 @@
         <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU20" t="n">
         <v>1.31</v>
@@ -4963,7 +4963,7 @@
         <v>1.83</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU22" t="n">
         <v>2.13</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.8</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>0.8</v>
@@ -8008,7 +8008,7 @@
         <v>0.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU37" t="n">
         <v>1.84</v>
@@ -8414,7 +8414,7 @@
         <v>1.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>1.96</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU40" t="n">
         <v>1.85</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>0.4</v>
@@ -9835,7 +9835,7 @@
         <v>0.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.77</v>
@@ -10038,7 +10038,7 @@
         <v>1.6</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU47" t="n">
         <v>1.89</v>
@@ -11662,7 +11662,7 @@
         <v>0.6</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU55" t="n">
         <v>1.88</v>
@@ -11862,7 +11862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>1.6</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU61" t="n">
         <v>2.31</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT63" t="n">
         <v>0.4</v>
@@ -14707,7 +14707,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT71" t="n">
         <v>1.4</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.4</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16737,7 +16737,7 @@
         <v>1.6</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -16992,6 +16992,615 @@
       </c>
       <c r="BK81" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5002291</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Unión La Calera</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['21', '45+6']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['25', '45+3', '63']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>7</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5002288</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45038.77083333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Universidad Chile</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['25', '66']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>6</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>8</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V83" t="n">
+        <v>4</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5002294</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45038.875</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>10</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>13</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V84" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>1.83</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1.83</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT5" t="n">
         <v>1.17</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU19" t="n">
         <v>2.12</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.17</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.4</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5775,7 +5775,7 @@
         <v>1.6</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -5978,7 +5978,7 @@
         <v>0.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>1.74</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.66</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT38" t="n">
         <v>0.4</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.8</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU45" t="n">
         <v>2.31</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -10850,7 +10850,7 @@
         <v>0.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU51" t="n">
         <v>1.71</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.56</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11456,7 +11456,7 @@
         <v>0.67</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT54" t="n">
         <v>0.4</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT59" t="n">
         <v>2.17</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU62" t="n">
         <v>1.56</v>
@@ -13489,7 +13489,7 @@
         <v>0.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT65" t="n">
         <v>1.4</v>
@@ -13895,7 +13895,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.98</v>
@@ -14098,7 +14098,7 @@
         <v>1.6</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU67" t="n">
         <v>1.89</v>
@@ -14298,7 +14298,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>2</v>
@@ -14501,10 +14501,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU69" t="n">
         <v>1.65</v>
@@ -14704,7 +14704,7 @@
         <v>1.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>1.83</v>
@@ -15719,10 +15719,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.51</v>
@@ -17601,6 +17601,1021 @@
       </c>
       <c r="BK84" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5002289</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['4', '20']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>8</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>4</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5002295</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Curicó Unido</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['17', '48']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6</v>
+      </c>
+      <c r="S86" t="n">
+        <v>11</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5002293</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45039.77083333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['7', '76', '89']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>7</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V87" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5002290</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45039.875</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Unión Española</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['49', '90+7']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>8</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V88" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5002292</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45040.89583333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>7</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['19', '61']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['30', '43', '56', '69', '83']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>0.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>0.4</v>
@@ -3745,7 +3745,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT26" t="n">
         <v>0.8</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>2.67</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU65" t="n">
         <v>1.75</v>
@@ -13892,7 +13892,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -14910,7 +14910,7 @@
         <v>1.8</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -16128,7 +16128,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.74</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.83</v>
@@ -18616,6 +18616,209 @@
       </c>
       <c r="BK89" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5002296</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45044.79166666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Unión La Calera</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>8</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT4" t="n">
         <v>0.83</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.8</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1.17</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT19" t="n">
         <v>0.83</v>
@@ -4760,7 +4760,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU21" t="n">
         <v>1.82</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT22" t="n">
         <v>2.17</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>2.19</v>
@@ -6790,7 +6790,7 @@
         <v>1.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT32" t="n">
         <v>1.17</v>
@@ -7602,7 +7602,7 @@
         <v>2.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.71</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
         <v>2</v>
@@ -8211,7 +8211,7 @@
         <v>1.83</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT39" t="n">
         <v>1.17</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT40" t="n">
         <v>2.17</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>2.16</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU43" t="n">
         <v>1.79</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT48" t="n">
         <v>2.17</v>
@@ -11459,7 +11459,7 @@
         <v>2.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU54" t="n">
         <v>1.69</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>2.13</v>
@@ -12065,7 +12065,7 @@
         <v>2.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT57" t="n">
         <v>2.17</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT61" t="n">
         <v>1.83</v>
@@ -13286,7 +13286,7 @@
         <v>1.8</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU63" t="n">
         <v>2.14</v>
@@ -15110,7 +15110,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT72" t="n">
         <v>0.5</v>
@@ -15516,10 +15516,10 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU74" t="n">
         <v>1.62</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT79" t="n">
         <v>2.17</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -18819,6 +18819,615 @@
       </c>
       <c r="BK90" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5002303</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45045.5625</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['18', '83']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>4</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5002300</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45045.77083333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Curicó Unido</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['49', '66']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['29', '47', '85']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5002298</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45045.875</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>10</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>13</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>1.33</v>
@@ -2121,7 +2121,7 @@
         <v>0.86</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT16" t="n">
         <v>1.33</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT24" t="n">
         <v>2.17</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU29" t="n">
         <v>2.66</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT37" t="n">
         <v>2.17</v>
@@ -9429,7 +9429,7 @@
         <v>1.83</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.83</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT51" t="n">
         <v>0.8</v>
@@ -11659,7 +11659,7 @@
         <v>0.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>1.17</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU75" t="n">
         <v>1.51</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>2.17</v>
@@ -18361,7 +18361,7 @@
         <v>1.67</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -19427,6 +19427,412 @@
         <v>15</v>
       </c>
       <c r="BK93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5002301</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45046.79166666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Unión Española</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>10</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5002299</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45046.89583333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>7</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK95" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1309,7 +1309,7 @@
         <v>1.57</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT12" t="n">
         <v>0.8</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>0.86</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU19" t="n">
         <v>2.12</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.31</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT21" t="n">
         <v>0.83</v>
@@ -4963,7 +4963,7 @@
         <v>1.57</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU22" t="n">
         <v>2.13</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5369,7 +5369,7 @@
         <v>0.83</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU24" t="n">
         <v>2.1</v>
@@ -5775,7 +5775,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>0.86</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU34" t="n">
         <v>1.47</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT35" t="n">
         <v>1.33</v>
@@ -8008,7 +8008,7 @@
         <v>0.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU37" t="n">
         <v>1.84</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>0.83</v>
@@ -8414,7 +8414,7 @@
         <v>1.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.96</v>
@@ -8617,7 +8617,7 @@
         <v>0.86</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU40" t="n">
         <v>1.85</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT41" t="n">
         <v>0.8</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT43" t="n">
         <v>0.67</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>1.29</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU45" t="n">
         <v>2.31</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU46" t="n">
         <v>1.77</v>
@@ -10038,7 +10038,7 @@
         <v>1.6</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.89</v>
@@ -10241,7 +10241,7 @@
         <v>1.57</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.87</v>
@@ -10441,10 +10441,10 @@
         <v>0.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -10850,7 +10850,7 @@
         <v>0.83</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU51" t="n">
         <v>1.71</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.56</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11456,7 +11456,7 @@
         <v>0.67</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT54" t="n">
         <v>0.83</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.88</v>
@@ -12068,7 +12068,7 @@
         <v>0.86</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU57" t="n">
         <v>1.97</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12674,7 +12674,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -12880,7 +12880,7 @@
         <v>1.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU61" t="n">
         <v>2.31</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU62" t="n">
         <v>1.56</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT65" t="n">
         <v>1.33</v>
@@ -13895,7 +13895,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU66" t="n">
         <v>1.98</v>
@@ -14098,7 +14098,7 @@
         <v>1.6</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.89</v>
@@ -14298,7 +14298,7 @@
         <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT68" t="n">
         <v>2</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT69" t="n">
         <v>0.8</v>
@@ -14704,10 +14704,10 @@
         <v>1.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT75" t="n">
         <v>1.29</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT77" t="n">
         <v>1.33</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU78" t="n">
         <v>1.74</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -17143,7 +17143,7 @@
         <v>1.8</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU83" t="n">
         <v>2.06</v>
@@ -17546,10 +17546,10 @@
         <v>1.6</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU84" t="n">
         <v>1.66</v>
@@ -17749,10 +17749,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU86" t="n">
         <v>1.82</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.8</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT88" t="n">
         <v>1.29</v>
@@ -18561,10 +18561,10 @@
         <v>0.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU89" t="n">
         <v>1.45</v>
@@ -19834,6 +19834,1427 @@
       </c>
       <c r="BK95" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5002310</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45055.6875</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Curicó Unido</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['38', '89']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5002305</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45055.79166666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>7</v>
+      </c>
+      <c r="S97" t="n">
+        <v>9</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5002306</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45055.79166666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Unión Española</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Unión La Calera</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['15', '37', '51']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['6', '86']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>10</v>
+      </c>
+      <c r="S98" t="n">
+        <v>12</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5002307</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45055.89583333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['12', '42']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>6</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>9</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V99" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5002309</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45056.79166666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>7</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5002304</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45056.79166666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Universidad Chile</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['12', '62']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>7</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5002311</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45056.89583333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['44', '60']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>9</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>11</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>2.17</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU27" t="n">
         <v>1.74</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT29" t="n">
         <v>1.29</v>
@@ -8820,7 +8820,7 @@
         <v>1.29</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT45" t="n">
         <v>0.71</v>
@@ -11862,7 +11862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT56" t="n">
         <v>1.33</v>
@@ -14504,7 +14504,7 @@
         <v>1.86</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU69" t="n">
         <v>1.65</v>
@@ -15922,7 +15922,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT76" t="n">
         <v>0.5</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT83" t="n">
         <v>1.86</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU87" t="n">
         <v>1.87</v>
@@ -20510,10 +20510,10 @@
         <v>6</v>
       </c>
       <c r="R99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T99" t="n">
         <v>2.25</v>
@@ -21255,6 +21255,209 @@
       </c>
       <c r="BK102" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5002308</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45057.89583333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['62', '64']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['43', '86']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>8</v>
+      </c>
+      <c r="S103" t="n">
+        <v>10</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>4</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT2" t="n">
         <v>1.57</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.57</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>2.29</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.17</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.17</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU18" t="n">
         <v>1.5</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>2.12</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU21" t="n">
         <v>1.82</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT24" t="n">
         <v>2.29</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT26" t="n">
         <v>1.17</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU27" t="n">
         <v>1.74</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.5</v>
@@ -6384,7 +6384,7 @@
         <v>1.86</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.66</v>
@@ -6587,7 +6587,7 @@
         <v>1.29</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU30" t="n">
         <v>2.19</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7602,7 +7602,7 @@
         <v>2.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU35" t="n">
         <v>1.71</v>
@@ -7805,7 +7805,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU36" t="n">
         <v>2.55</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT37" t="n">
         <v>1.86</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT40" t="n">
         <v>1.86</v>
@@ -8820,7 +8820,7 @@
         <v>1.29</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9020,10 +9020,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU42" t="n">
         <v>2.16</v>
@@ -9223,10 +9223,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>1.79</v>
@@ -9429,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -9632,7 +9632,7 @@
         <v>1.86</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>2.31</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT46" t="n">
         <v>1.57</v>
@@ -10035,7 +10035,7 @@
         <v>0.67</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>2.17</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10647,7 +10647,7 @@
         <v>1.29</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU50" t="n">
         <v>2.18</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT51" t="n">
         <v>1.17</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>2.71</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU54" t="n">
         <v>1.69</v>
@@ -11659,7 +11659,7 @@
         <v>0.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1.86</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU56" t="n">
         <v>2.13</v>
@@ -12065,7 +12065,7 @@
         <v>2.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT57" t="n">
         <v>2.29</v>
@@ -12677,7 +12677,7 @@
         <v>2.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -13283,10 +13283,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU63" t="n">
         <v>2.14</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13692,7 +13692,7 @@
         <v>2.71</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU65" t="n">
         <v>1.75</v>
@@ -13892,10 +13892,10 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.98</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14298,10 +14298,10 @@
         <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU68" t="n">
         <v>1.57</v>
@@ -14501,10 +14501,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU69" t="n">
         <v>1.65</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15519,7 +15519,7 @@
         <v>1.57</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU74" t="n">
         <v>1.62</v>
@@ -15722,7 +15722,7 @@
         <v>1.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.51</v>
@@ -16128,7 +16128,7 @@
         <v>1.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.74</v>
@@ -16328,7 +16328,7 @@
         <v>2.4</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT78" t="n">
         <v>2.29</v>
@@ -16734,7 +16734,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT80" t="n">
         <v>1.57</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17749,7 +17749,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU87" t="n">
         <v>1.87</v>
@@ -18358,10 +18358,10 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18564,7 +18564,7 @@
         <v>1.29</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.45</v>
@@ -18764,10 +18764,10 @@
         <v>1.4</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU90" t="n">
         <v>1.82</v>
@@ -18970,7 +18970,7 @@
         <v>1.57</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU91" t="n">
         <v>1.58</v>
@@ -19170,10 +19170,10 @@
         <v>0.4</v>
       </c>
       <c r="AS92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT92" t="n">
         <v>0.86</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>0.83</v>
       </c>
       <c r="AU92" t="n">
         <v>1.69</v>
@@ -19376,7 +19376,7 @@
         <v>1.33</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU93" t="n">
         <v>2.01</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -19779,10 +19779,10 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.67</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT96" t="n">
         <v>1.17</v>
@@ -20388,7 +20388,7 @@
         <v>1.17</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.84</v>
@@ -21406,7 +21406,7 @@
         <v>1.86</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU103" t="n">
         <v>1.95</v>
@@ -21458,6 +21458,1630 @@
       </c>
       <c r="BK103" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5002317</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45059.6875</v>
+      </c>
+      <c r="F104" t="n">
+        <v>14</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['4', '45']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>9</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>14</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5002312</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45059.79166666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Unión Española</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5002319</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45060.5625</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['31', '38']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>6</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>9</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5002315</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Unión La Calera</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['76', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>9</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5002313</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45060.77083333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Universidad Católica</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['29', '45+12', '56', '74']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>9</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>11</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5002318</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45060.875</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Curicó Unido</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>7</v>
+      </c>
+      <c r="S109" t="n">
+        <v>12</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5002314</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45061.79166666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Universidad Chile</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5002316</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45061.89583333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>8</v>
+      </c>
+      <c r="T111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>2.17</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT12" t="n">
         <v>1.14</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT18" t="n">
         <v>2.17</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>2.13</v>
@@ -5166,7 +5166,7 @@
         <v>2.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5369,7 +5369,7 @@
         <v>0.86</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>2.1</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>1.29</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU28" t="n">
         <v>1.95</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
         <v>0.71</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
         <v>1.14</v>
@@ -6993,7 +6993,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7196,7 +7196,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU33" t="n">
         <v>1.58</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.47</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT36" t="n">
         <v>2.17</v>
@@ -8008,7 +8008,7 @@
         <v>0.86</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.84</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
         <v>0.86</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>0.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.85</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
         <v>1.14</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT44" t="n">
         <v>1.5</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>0.86</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU46" t="n">
         <v>1.77</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.87</v>
@@ -10441,7 +10441,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT50" t="n">
         <v>2.17</v>
@@ -10850,7 +10850,7 @@
         <v>0.86</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU51" t="n">
         <v>1.71</v>
@@ -11053,7 +11053,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU52" t="n">
         <v>1.56</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU53" t="n">
         <v>2.11</v>
@@ -11862,7 +11862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>1.14</v>
@@ -12068,7 +12068,7 @@
         <v>0.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU57" t="n">
         <v>1.97</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12674,7 +12674,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT60" t="n">
         <v>0.71</v>
@@ -12877,10 +12877,10 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU61" t="n">
         <v>2.31</v>
@@ -13080,10 +13080,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU62" t="n">
         <v>1.56</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU67" t="n">
         <v>1.89</v>
@@ -14704,10 +14704,10 @@
         <v>1.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -15110,10 +15110,10 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.75</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT74" t="n">
         <v>0.71</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT75" t="n">
         <v>1.5</v>
@@ -15922,10 +15922,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU76" t="n">
         <v>2.2</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
         <v>1.29</v>
@@ -16331,7 +16331,7 @@
         <v>0.86</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.74</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16737,7 +16737,7 @@
         <v>1.29</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -17343,10 +17343,10 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU83" t="n">
         <v>2.06</v>
@@ -17546,10 +17546,10 @@
         <v>1.6</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU84" t="n">
         <v>1.66</v>
@@ -17752,7 +17752,7 @@
         <v>0.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU85" t="n">
         <v>1.61</v>
@@ -17955,7 +17955,7 @@
         <v>2.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU86" t="n">
         <v>1.82</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT87" t="n">
         <v>1.14</v>
@@ -18561,7 +18561,7 @@
         <v>0.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT91" t="n">
         <v>1.14</v>
@@ -19373,7 +19373,7 @@
         <v>0.8</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT93" t="n">
         <v>0.71</v>
@@ -19985,7 +19985,7 @@
         <v>0.71</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU96" t="n">
         <v>1.59</v>
@@ -20185,10 +20185,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU97" t="n">
         <v>1.51</v>
@@ -20591,7 +20591,7 @@
         <v>0.83</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>2.71</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -20997,10 +20997,10 @@
         <v>2.17</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.64</v>
@@ -21200,10 +21200,10 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.68</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>1.14</v>
@@ -23082,6 +23082,1427 @@
       </c>
       <c r="BK111" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5002326</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45064.875</v>
+      </c>
+      <c r="F112" t="n">
+        <v>15</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Curicó Unido</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>10</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>13</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V112" t="n">
+        <v>6</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5002325</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45065.6875</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>8</v>
+      </c>
+      <c r="T113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5002327</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45065.79166666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>9</v>
+      </c>
+      <c r="S114" t="n">
+        <v>13</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X114" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5002324</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45065.89583333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>7</v>
+      </c>
+      <c r="S115" t="n">
+        <v>10</v>
+      </c>
+      <c r="T115" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5002320</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Universidad Chile</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>6</v>
+      </c>
+      <c r="T116" t="n">
+        <v>3</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5002321</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45066.77083333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>3</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['5', '31']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+      <c r="R117" t="n">
+        <v>9</v>
+      </c>
+      <c r="S117" t="n">
+        <v>11</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>5</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>21</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5002322</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45066.875</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Unión La Calera</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>9</v>
+      </c>
+      <c r="R118" t="n">
+        <v>11</v>
+      </c>
+      <c r="S118" t="n">
+        <v>20</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V118" t="n">
+        <v>4</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT23" t="n">
         <v>0.88</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1.14</v>
@@ -11456,7 +11456,7 @@
         <v>0.67</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0.86</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT65" t="n">
         <v>1.29</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT86" t="n">
         <v>1.43</v>
@@ -20794,7 +20794,7 @@
         <v>1.83</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.75</v>
@@ -24503,6 +24503,209 @@
       </c>
       <c r="BK118" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5002323</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45067.77083333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Unión Española</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>11</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4</v>
+      </c>
+      <c r="S119" t="n">
+        <v>15</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X119" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -5631,7 +5631,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5002230</v>
+        <v>5002227</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5651,59 +5651,59 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Unión La Calera</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
         <v>3</v>
       </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
       <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['17', '67', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
         <v>5</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>['84', '90+1', '90+6']</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>['49', '79']</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>7</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>11</v>
-      </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="U26" t="n">
         <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="W26" t="n">
         <v>1.36</v>
@@ -5724,13 +5724,13 @@
         <v>1.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="AE26" t="n">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="AF26" t="n">
         <v>1.05</v>
@@ -5739,16 +5739,16 @@
         <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="AL26" t="n">
         <v>1.67</v>
@@ -5757,76 +5757,76 @@
         <v>2.1</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AO26" t="n">
         <v>1.3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.32</v>
+        <v>4.1</v>
       </c>
       <c r="AX26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AY26" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BB26" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BC26" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="BD26" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BE26" t="n">
-        <v>3.94</v>
+        <v>3.64</v>
       </c>
       <c r="BF26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BI26" t="n">
         <v>5</v>
       </c>
       <c r="BJ26" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BK26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5002227</v>
+        <v>5002230</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5854,59 +5854,59 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Copiapó</t>
+          <t>Unión La Calera</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['84', '90+1', '90+6']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['49', '79']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>11</v>
+      </c>
+      <c r="T27" t="n">
         <v>3</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>['29']</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>['17', '67', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.6</v>
       </c>
       <c r="U27" t="n">
         <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="W27" t="n">
         <v>1.36</v>
@@ -5927,13 +5927,13 @@
         <v>1.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.46</v>
+        <v>2.71</v>
       </c>
       <c r="AF27" t="n">
         <v>1.05</v>
@@ -5942,16 +5942,16 @@
         <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AK27" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="AL27" t="n">
         <v>1.67</v>
@@ -5960,76 +5960,76 @@
         <v>2.1</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AO27" t="n">
         <v>1.3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.1</v>
+        <v>3.32</v>
       </c>
       <c r="AX27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AY27" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="BC27" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="BD27" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BE27" t="n">
-        <v>3.64</v>
+        <v>3.94</v>
       </c>
       <c r="BF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG27" t="n">
         <v>5</v>
       </c>
-      <c r="BG27" t="n">
-        <v>9</v>
-      </c>
       <c r="BH27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BI27" t="n">
         <v>5</v>
       </c>
       <c r="BJ27" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BK27" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -8879,7 +8879,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>5002246</v>
+        <v>5002240</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -8899,182 +8899,182 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Unión La Calera</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Ñublense</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['8', '45+2']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['45+4']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="U42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="W42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X42" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AC42" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AD42" t="n">
         <v>3.25</v>
       </c>
       <c r="AE42" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AF42" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG42" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AI42" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ42" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC42" t="n">
         <v>1.98</v>
       </c>
-      <c r="AK42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>2.15</v>
-      </c>
       <c r="BD42" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BE42" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BF42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI42" t="n">
         <v>5</v>
       </c>
       <c r="BJ42" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>5002240</v>
+        <v>5002246</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,182 +9102,182 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Unión La Calera</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Ñublense</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['8', '45+2']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['45+4']</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
         <v>6</v>
       </c>
-      <c r="S43" t="n">
-        <v>7</v>
-      </c>
       <c r="T43" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="U43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V43" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z43" t="n">
         <v>1.37</v>
       </c>
-      <c r="X43" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AA43" t="n">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC43" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AD43" t="n">
         <v>3.25</v>
       </c>
       <c r="AE43" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG43" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS43" t="n">
         <v>1.29</v>
       </c>
-      <c r="AI43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL43" t="n">
+      <c r="AT43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB43" t="n">
         <v>1.66</v>
       </c>
-      <c r="AM43" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>1.5</v>
-      </c>
       <c r="BC43" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="BD43" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BE43" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BF43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI43" t="n">
         <v>5</v>
       </c>
       <c r="BJ43" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -10097,7 +10097,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>5002263</v>
+        <v>5002252</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -10117,179 +10117,179 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['45+9', '90+8']</t>
+          <t>['22', '84', '90+7']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T48" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="U48" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V48" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="W48" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X48" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV48" t="n">
         <v>1.43</v>
       </c>
-      <c r="AA48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AW48" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="AX48" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AY48" t="n">
         <v>8</v>
       </c>
       <c r="AZ48" t="n">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="BA48" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BB48" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="BC48" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BD48" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="BE48" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="BF48" t="n">
         <v>7</v>
       </c>
       <c r="BG48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI48" t="n">
         <v>4</v>
       </c>
-      <c r="BI48" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ48" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK48" t="n">
         <v>8</v>
@@ -10300,7 +10300,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>5002252</v>
+        <v>5002263</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -10320,179 +10320,179 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
         <v>3</v>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="n">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['45+9', '90+8']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>4</v>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>['22', '84', '90+7']</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>['2']</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>11</v>
-      </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S49" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T49" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="U49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM49" t="n">
         <v>2.05</v>
       </c>
-      <c r="V49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X49" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z49" t="n">
+      <c r="AN49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS49" t="n">
         <v>1.38</v>
       </c>
-      <c r="AA49" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>2.29</v>
-      </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU49" t="n">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="AV49" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AW49" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="AX49" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AY49" t="n">
         <v>8</v>
       </c>
       <c r="AZ49" t="n">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="BA49" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BB49" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="BC49" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BD49" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="BE49" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="BF49" t="n">
         <v>7</v>
       </c>
       <c r="BG49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH49" t="n">
         <v>4</v>
       </c>
-      <c r="BH49" t="n">
-        <v>7</v>
-      </c>
       <c r="BI49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ49" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK49" t="n">
         <v>8</v>
@@ -12533,7 +12533,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>5002265</v>
+        <v>5002269</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -12553,140 +12553,140 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
         <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['24', '35']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['15', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
         <v>3</v>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>['22', '56']</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>['72']</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S60" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U60" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V60" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="W60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC60" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="AD60" t="n">
         <v>3.4</v>
       </c>
       <c r="AE60" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="AF60" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AI60" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AK60" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AM60" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN60" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AO60" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT60" t="n">
         <v>1.75</v>
       </c>
-      <c r="AR60" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>0.71</v>
-      </c>
       <c r="AU60" t="n">
-        <v>1.55</v>
+        <v>2.31</v>
       </c>
       <c r="AV60" t="n">
         <v>1.57</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.12</v>
+        <v>3.88</v>
       </c>
       <c r="AX60" t="n">
         <v>1.75</v>
@@ -12713,19 +12713,19 @@
         <v>3.2</v>
       </c>
       <c r="BF60" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ60" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BK60" t="n">
         <v>11</v>
@@ -12736,7 +12736,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>5002269</v>
+        <v>5002265</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -12756,140 +12756,140 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
         <v>3</v>
       </c>
-      <c r="L61" t="n">
-        <v>2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>4</v>
-      </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['24', '35']</t>
+          <t>['22', '56']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>['15', '90+1']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>7</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA61" t="n">
         <v>8</v>
       </c>
-      <c r="S61" t="n">
-        <v>11</v>
-      </c>
-      <c r="T61" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U61" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V61" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W61" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X61" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>9</v>
-      </c>
       <c r="AB61" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC61" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AD61" t="n">
         <v>3.4</v>
       </c>
       <c r="AE61" t="n">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="AF61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH61" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AI61" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AK61" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AL61" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AM61" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN61" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AO61" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP61" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU61" t="n">
         <v>1.55</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>2.31</v>
       </c>
       <c r="AV61" t="n">
         <v>1.57</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.88</v>
+        <v>3.12</v>
       </c>
       <c r="AX61" t="n">
         <v>1.75</v>
@@ -12916,19 +12916,19 @@
         <v>3.2</v>
       </c>
       <c r="BF61" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ61" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BK61" t="n">
         <v>11</v>
@@ -13345,7 +13345,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>5002275</v>
+        <v>5002272</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -13365,182 +13365,182 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '34', '77']</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>['83', '87']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
         <v>9</v>
       </c>
-      <c r="S64" t="n">
-        <v>17</v>
-      </c>
       <c r="T64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X64" t="n">
         <v>2.75</v>
       </c>
-      <c r="U64" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V64" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X64" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Y64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC64" t="n">
         <v>2.65</v>
       </c>
-      <c r="Z64" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AD64" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE64" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AF64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG64" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AH64" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AI64" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AJ64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK64" t="n">
         <v>1.75</v>
       </c>
-      <c r="AK64" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AL64" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AM64" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AN64" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AO64" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AR64" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.86</v>
+        <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU64" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AV64" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AW64" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="AX64" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="AY64" t="n">
         <v>5.75</v>
       </c>
       <c r="AZ64" t="n">
-        <v>2.35</v>
+        <v>1.76</v>
       </c>
       <c r="BA64" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BB64" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BC64" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD64" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BE64" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="BF64" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG64" t="n">
         <v>4</v>
       </c>
       <c r="BH64" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BI64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK64" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -13548,7 +13548,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>5002272</v>
+        <v>5002275</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -13568,182 +13568,182 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['83', '87']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>8</v>
+      </c>
+      <c r="R65" t="n">
+        <v>9</v>
+      </c>
+      <c r="S65" t="n">
+        <v>17</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE65" t="n">
         <v>3</v>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>4</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>['8', '34', '77']</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>['90+5']</t>
-        </is>
-      </c>
-      <c r="Q65" t="n">
-        <v>6</v>
-      </c>
-      <c r="R65" t="n">
-        <v>3</v>
-      </c>
-      <c r="S65" t="n">
-        <v>9</v>
-      </c>
-      <c r="T65" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U65" t="n">
+      <c r="AF65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM65" t="n">
         <v>2.05</v>
       </c>
-      <c r="V65" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X65" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH65" t="n">
+      <c r="AN65" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO65" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI65" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AP65" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT65" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AU65" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AV65" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AW65" t="n">
-        <v>3.17</v>
+        <v>3.26</v>
       </c>
       <c r="AX65" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="AY65" t="n">
         <v>5.75</v>
       </c>
       <c r="AZ65" t="n">
-        <v>1.76</v>
+        <v>2.35</v>
       </c>
       <c r="BA65" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BB65" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BC65" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD65" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BE65" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="BF65" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BG65" t="n">
         <v>4</v>
       </c>
       <c r="BH65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ65" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK65" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -20653,7 +20653,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>5002309</v>
+        <v>5002304</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -20673,59 +20673,59 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Universidad Chile</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['12', '62']</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
         <v>7</v>
       </c>
-      <c r="R100" t="n">
-        <v>3</v>
-      </c>
-      <c r="S100" t="n">
-        <v>10</v>
-      </c>
       <c r="T100" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="U100" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V100" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="W100" t="n">
         <v>1.4</v>
@@ -20734,10 +20734,10 @@
         <v>2.75</v>
       </c>
       <c r="Y100" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA100" t="n">
         <v>8</v>
@@ -20746,13 +20746,13 @@
         <v>1.08</v>
       </c>
       <c r="AC100" t="n">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="AD100" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AE100" t="n">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="AF100" t="n">
         <v>1.04</v>
@@ -20761,10 +20761,10 @@
         <v>11</v>
       </c>
       <c r="AH100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI100" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AJ100" t="n">
         <v>1.92</v>
@@ -20773,67 +20773,67 @@
         <v>1.75</v>
       </c>
       <c r="AL100" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AM100" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN100" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AO100" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AT100" t="n">
         <v>1.75</v>
       </c>
       <c r="AU100" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="AV100" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AW100" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="AX100" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AY100" t="n">
         <v>8</v>
       </c>
       <c r="AZ100" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="BA100" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BB100" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="BC100" t="n">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="BD100" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="BE100" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BF100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG100" t="n">
         <v>4</v>
@@ -20842,13 +20842,13 @@
         <v>3</v>
       </c>
       <c r="BI100" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BJ100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK100" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -20856,7 +20856,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>5002304</v>
+        <v>5002309</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -20876,59 +20876,59 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Universidad Chile</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>7</v>
+      </c>
+      <c r="R101" t="n">
         <v>3</v>
       </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>['12', '62']</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>3</v>
-      </c>
-      <c r="R101" t="n">
-        <v>4</v>
-      </c>
       <c r="S101" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T101" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="U101" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V101" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="W101" t="n">
         <v>1.4</v>
@@ -20937,10 +20937,10 @@
         <v>2.75</v>
       </c>
       <c r="Y101" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z101" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA101" t="n">
         <v>8</v>
@@ -20949,13 +20949,13 @@
         <v>1.08</v>
       </c>
       <c r="AC101" t="n">
-        <v>2.65</v>
+        <v>2</v>
       </c>
       <c r="AD101" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AE101" t="n">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="AF101" t="n">
         <v>1.04</v>
@@ -20964,10 +20964,10 @@
         <v>11</v>
       </c>
       <c r="AH101" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AI101" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AJ101" t="n">
         <v>1.92</v>
@@ -20976,67 +20976,67 @@
         <v>1.75</v>
       </c>
       <c r="AL101" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AM101" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN101" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AO101" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AR101" t="n">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AT101" t="n">
         <v>1.75</v>
       </c>
       <c r="AU101" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="AV101" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AW101" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="AX101" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AY101" t="n">
         <v>8</v>
       </c>
       <c r="AZ101" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="BA101" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BB101" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="BC101" t="n">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="BD101" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="BE101" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BF101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG101" t="n">
         <v>4</v>
@@ -21045,13 +21045,13 @@
         <v>3</v>
       </c>
       <c r="BI101" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK101" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['45+1', '56', '90+6']</t>
   </si>
   <si>
     <t>['44', '45+4', '74']</t>
@@ -1071,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2079,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2169,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2270,7 +2273,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2652,7 +2655,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2739,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
         <v>2</v>
@@ -2843,7 +2846,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3034,7 +3037,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3225,7 +3228,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3503,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3607,7 +3610,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3798,7 +3801,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -3989,7 +3992,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4371,7 +4374,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4461,7 +4464,7 @@
         <v>2.29</v>
       </c>
       <c r="AT18">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU18">
         <v>1.5</v>
@@ -4562,7 +4565,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4944,7 +4947,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5708,7 +5711,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5899,7 +5902,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6090,7 +6093,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6281,7 +6284,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6368,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT28">
         <v>0.43</v>
@@ -6663,7 +6666,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7045,7 +7048,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7236,7 +7239,7 @@
         <v>107</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7427,7 +7430,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7618,7 +7621,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7809,7 +7812,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7899,7 +7902,7 @@
         <v>1.57</v>
       </c>
       <c r="AT36">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU36">
         <v>2.55</v>
@@ -8000,7 +8003,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8191,7 +8194,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8573,7 +8576,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8764,7 +8767,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9337,7 +9340,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>11</v>
@@ -9528,7 +9531,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9719,7 +9722,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9910,7 +9913,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9997,7 +10000,7 @@
         <v>0.67</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10292,7 +10295,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10483,7 +10486,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10573,7 +10576,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU50">
         <v>2.18</v>
@@ -10674,7 +10677,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11247,7 +11250,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11820,7 +11823,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12011,7 +12014,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12393,7 +12396,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12775,7 +12778,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13348,7 +13351,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13817,7 +13820,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
         <v>0.88</v>
@@ -14011,7 +14014,7 @@
         <v>0.71</v>
       </c>
       <c r="AT68">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU68">
         <v>1.57</v>
@@ -14685,7 +14688,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15067,7 +15070,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15258,7 +15261,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15831,7 +15834,7 @@
         <v>98</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -16022,7 +16025,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16404,7 +16407,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16595,7 +16598,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16786,7 +16789,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17168,7 +17171,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17550,7 +17553,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17932,7 +17935,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18314,7 +18317,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18505,7 +18508,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19269,7 +19272,7 @@
         <v>127</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19651,7 +19654,7 @@
         <v>155</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -19842,7 +19845,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20033,7 +20036,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20415,7 +20418,7 @@
         <v>127</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20606,7 +20609,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20797,7 +20800,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21370,7 +21373,7 @@
         <v>163</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21561,7 +21564,7 @@
         <v>105</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -21651,7 +21654,7 @@
         <v>0.86</v>
       </c>
       <c r="AT108">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU108">
         <v>1.61</v>
@@ -22030,7 +22033,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT110">
         <v>0.71</v>
@@ -22134,7 +22137,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22325,7 +22328,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>10</v>
@@ -23089,7 +23092,7 @@
         <v>167</v>
       </c>
       <c r="P116" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -23280,7 +23283,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23471,7 +23474,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23804,6 +23807,197 @@
       </c>
       <c r="BK119">
         <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5002297</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45105.79166666666</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>170</v>
+      </c>
+      <c r="P120" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q120">
+        <v>3</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>3</v>
+      </c>
+      <c r="T120">
+        <v>2.91</v>
+      </c>
+      <c r="U120">
+        <v>2.08</v>
+      </c>
+      <c r="V120">
+        <v>3.72</v>
+      </c>
+      <c r="W120">
+        <v>1.42</v>
+      </c>
+      <c r="X120">
+        <v>2.75</v>
+      </c>
+      <c r="Y120">
+        <v>2.88</v>
+      </c>
+      <c r="Z120">
+        <v>1.39</v>
+      </c>
+      <c r="AA120">
+        <v>7.2</v>
+      </c>
+      <c r="AB120">
+        <v>1.08</v>
+      </c>
+      <c r="AC120">
+        <v>2.2</v>
+      </c>
+      <c r="AD120">
+        <v>3.1</v>
+      </c>
+      <c r="AE120">
+        <v>2.9</v>
+      </c>
+      <c r="AF120">
+        <v>1.03</v>
+      </c>
+      <c r="AG120">
+        <v>8.5</v>
+      </c>
+      <c r="AH120">
+        <v>1.28</v>
+      </c>
+      <c r="AI120">
+        <v>3.26</v>
+      </c>
+      <c r="AJ120">
+        <v>1.91</v>
+      </c>
+      <c r="AK120">
+        <v>1.8</v>
+      </c>
+      <c r="AL120">
+        <v>1.74</v>
+      </c>
+      <c r="AM120">
+        <v>2.02</v>
+      </c>
+      <c r="AN120">
+        <v>1.36</v>
+      </c>
+      <c r="AO120">
+        <v>1.33</v>
+      </c>
+      <c r="AP120">
+        <v>1.61</v>
+      </c>
+      <c r="AQ120">
+        <v>1.5</v>
+      </c>
+      <c r="AR120">
+        <v>2.17</v>
+      </c>
+      <c r="AS120">
+        <v>1.71</v>
+      </c>
+      <c r="AT120">
+        <v>1.86</v>
+      </c>
+      <c r="AU120">
+        <v>1.82</v>
+      </c>
+      <c r="AV120">
+        <v>1.67</v>
+      </c>
+      <c r="AW120">
+        <v>3.49</v>
+      </c>
+      <c r="AX120">
+        <v>1.71</v>
+      </c>
+      <c r="AY120">
+        <v>5.5</v>
+      </c>
+      <c r="AZ120">
+        <v>2.45</v>
+      </c>
+      <c r="BA120">
+        <v>1.32</v>
+      </c>
+      <c r="BB120">
+        <v>1.58</v>
+      </c>
+      <c r="BC120">
+        <v>2.02</v>
+      </c>
+      <c r="BD120">
+        <v>2.7</v>
+      </c>
+      <c r="BE120">
+        <v>3.8</v>
+      </c>
+      <c r="BF120">
+        <v>3</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>3</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,9 @@
     <t>['45+1', '56', '90+6']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['44', '45+4', '74']</t>
   </si>
   <si>
@@ -545,9 +548,6 @@
   </si>
   <si>
     <t>['54']</t>
-  </si>
-  <si>
-    <t>['62']</t>
   </si>
   <si>
     <t>['16']</t>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2082,7 +2085,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2273,7 +2276,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2655,7 +2658,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2846,7 +2849,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2936,7 +2939,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3037,7 +3040,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3228,7 +3231,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3610,7 +3613,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3888,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT15">
         <v>0.71</v>
@@ -4565,7 +4568,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -6374,7 +6377,7 @@
         <v>1.71</v>
       </c>
       <c r="AT28">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>1.95</v>
@@ -7329,7 +7332,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>1.58</v>
@@ -11149,7 +11152,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>2.11</v>
@@ -13056,7 +13059,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT63">
         <v>0.86</v>
@@ -14584,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT71">
         <v>1.29</v>
@@ -14778,7 +14781,7 @@
         <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU72">
         <v>1.75</v>
@@ -14966,7 +14969,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15542,7 +15545,7 @@
         <v>2</v>
       </c>
       <c r="AT76">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>2.2</v>
@@ -16685,7 +16688,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -21269,7 +21272,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT106">
         <v>1.14</v>
@@ -22991,7 +22994,7 @@
         <v>2.29</v>
       </c>
       <c r="AT115">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU115">
         <v>1.58</v>
@@ -23092,7 +23095,7 @@
         <v>167</v>
       </c>
       <c r="P116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -23859,13 +23862,13 @@
         <v>81</v>
       </c>
       <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
         <v>3</v>
       </c>
-      <c r="R120">
-        <v>0</v>
-      </c>
       <c r="S120">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T120">
         <v>2.91</v>
@@ -23998,6 +24001,197 @@
       </c>
       <c r="BK120">
         <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5002302</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45110.54166666666</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>65</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>171</v>
+      </c>
+      <c r="P121" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q121">
+        <v>13</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121">
+        <v>16</v>
+      </c>
+      <c r="T121">
+        <v>2.6</v>
+      </c>
+      <c r="U121">
+        <v>2.15</v>
+      </c>
+      <c r="V121">
+        <v>4.33</v>
+      </c>
+      <c r="W121">
+        <v>1.38</v>
+      </c>
+      <c r="X121">
+        <v>2.8</v>
+      </c>
+      <c r="Y121">
+        <v>2.7</v>
+      </c>
+      <c r="Z121">
+        <v>1.4</v>
+      </c>
+      <c r="AA121">
+        <v>6.75</v>
+      </c>
+      <c r="AB121">
+        <v>1.09</v>
+      </c>
+      <c r="AC121">
+        <v>1.8</v>
+      </c>
+      <c r="AD121">
+        <v>3.7</v>
+      </c>
+      <c r="AE121">
+        <v>3.9</v>
+      </c>
+      <c r="AF121">
+        <v>1.05</v>
+      </c>
+      <c r="AG121">
+        <v>11</v>
+      </c>
+      <c r="AH121">
+        <v>1.3</v>
+      </c>
+      <c r="AI121">
+        <v>3.5</v>
+      </c>
+      <c r="AJ121">
+        <v>1.8</v>
+      </c>
+      <c r="AK121">
+        <v>1.95</v>
+      </c>
+      <c r="AL121">
+        <v>1.78</v>
+      </c>
+      <c r="AM121">
+        <v>2</v>
+      </c>
+      <c r="AN121">
+        <v>1.25</v>
+      </c>
+      <c r="AO121">
+        <v>1.25</v>
+      </c>
+      <c r="AP121">
+        <v>1.87</v>
+      </c>
+      <c r="AQ121">
+        <v>2</v>
+      </c>
+      <c r="AR121">
+        <v>0.43</v>
+      </c>
+      <c r="AS121">
+        <v>1.86</v>
+      </c>
+      <c r="AT121">
+        <v>0.5</v>
+      </c>
+      <c r="AU121">
+        <v>1.51</v>
+      </c>
+      <c r="AV121">
+        <v>1.4</v>
+      </c>
+      <c r="AW121">
+        <v>2.91</v>
+      </c>
+      <c r="AX121">
+        <v>1.69</v>
+      </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
+      <c r="AZ121">
+        <v>2.63</v>
+      </c>
+      <c r="BA121">
+        <v>1.27</v>
+      </c>
+      <c r="BB121">
+        <v>1.51</v>
+      </c>
+      <c r="BC121">
+        <v>1.9</v>
+      </c>
+      <c r="BD121">
+        <v>2.44</v>
+      </c>
+      <c r="BE121">
+        <v>3.28</v>
+      </c>
+      <c r="BF121">
+        <v>6</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>8</v>
+      </c>
+      <c r="BI121">
+        <v>3</v>
+      </c>
+      <c r="BJ121">
+        <v>14</v>
+      </c>
+      <c r="BK121">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1077,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT10">
         <v>0.5</v>
@@ -3512,7 +3512,7 @@
         <v>1.71</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>2.06</v>
@@ -5804,7 +5804,7 @@
         <v>1.57</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU25">
         <v>2.07</v>
@@ -10576,7 +10576,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT50">
         <v>1.86</v>
@@ -12107,7 +12107,7 @@
         <v>1.25</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU58">
         <v>1.81</v>
@@ -12868,7 +12868,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT62">
         <v>1.43</v>
@@ -14396,7 +14396,7 @@
         <v>1.67</v>
       </c>
       <c r="AS70">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT70">
         <v>1.75</v>
@@ -14972,7 +14972,7 @@
         <v>1.86</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU73">
         <v>1.53</v>
@@ -15351,7 +15351,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT75">
         <v>1.5</v>
@@ -16500,7 +16500,7 @@
         <v>0.75</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU81">
         <v>1.79</v>
@@ -18025,7 +18025,7 @@
         <v>0.4</v>
       </c>
       <c r="AS89">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18983,7 +18983,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU94">
         <v>1.73</v>
@@ -19553,7 +19553,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT97">
         <v>0.88</v>
@@ -23182,7 +23182,7 @@
         <v>1.86</v>
       </c>
       <c r="AS116">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT116">
         <v>1.75</v>
@@ -23758,7 +23758,7 @@
         <v>2.5</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU119">
         <v>1.74</v>
@@ -24176,22 +24176,213 @@
         <v>3.28</v>
       </c>
       <c r="BF121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG121">
         <v>3</v>
       </c>
       <c r="BH121">
+        <v>11</v>
+      </c>
+      <c r="BI121">
+        <v>5</v>
+      </c>
+      <c r="BJ121">
+        <v>16</v>
+      </c>
+      <c r="BK121">
         <v>8</v>
       </c>
-      <c r="BI121">
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5002334</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45113.83333333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H122" t="s">
+        <v>66</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>81</v>
+      </c>
+      <c r="P122" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q122">
         <v>3</v>
       </c>
-      <c r="BJ121">
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>2.2</v>
+      </c>
+      <c r="V122">
+        <v>4</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>2.75</v>
+      </c>
+      <c r="Y122">
+        <v>3</v>
+      </c>
+      <c r="Z122">
+        <v>1.36</v>
+      </c>
+      <c r="AA122">
+        <v>8</v>
+      </c>
+      <c r="AB122">
+        <v>1.08</v>
+      </c>
+      <c r="AC122">
+        <v>1.62</v>
+      </c>
+      <c r="AD122">
+        <v>2.89</v>
+      </c>
+      <c r="AE122">
+        <v>6.73</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>12</v>
+      </c>
+      <c r="AH122">
+        <v>1.3</v>
+      </c>
+      <c r="AI122">
+        <v>3.4</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.78</v>
+      </c>
+      <c r="AL122">
+        <v>1.8</v>
+      </c>
+      <c r="AM122">
+        <v>1.91</v>
+      </c>
+      <c r="AN122">
+        <v>1.32</v>
+      </c>
+      <c r="AO122">
+        <v>1.29</v>
+      </c>
+      <c r="AP122">
+        <v>1.68</v>
+      </c>
+      <c r="AQ122">
+        <v>1.25</v>
+      </c>
+      <c r="AR122">
+        <v>1</v>
+      </c>
+      <c r="AS122">
+        <v>1.11</v>
+      </c>
+      <c r="AT122">
+        <v>1.25</v>
+      </c>
+      <c r="AU122">
+        <v>1.65</v>
+      </c>
+      <c r="AV122">
+        <v>1.54</v>
+      </c>
+      <c r="AW122">
+        <v>3.19</v>
+      </c>
+      <c r="AX122">
+        <v>2.05</v>
+      </c>
+      <c r="AY122">
+        <v>8</v>
+      </c>
+      <c r="AZ122">
+        <v>2.05</v>
+      </c>
+      <c r="BA122">
+        <v>1.3</v>
+      </c>
+      <c r="BB122">
+        <v>1.57</v>
+      </c>
+      <c r="BC122">
+        <v>1.96</v>
+      </c>
+      <c r="BD122">
+        <v>2.6</v>
+      </c>
+      <c r="BE122">
+        <v>3.65</v>
+      </c>
+      <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>8</v>
+      </c>
+      <c r="BI122">
+        <v>9</v>
+      </c>
+      <c r="BJ122">
+        <v>13</v>
+      </c>
+      <c r="BK122">
         <v>14</v>
-      </c>
-      <c r="BK121">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['44', '45+4', '74']</t>
   </si>
   <si>
@@ -569,9 +575,6 @@
   </si>
   <si>
     <t>['49', '79']</t>
-  </si>
-  <si>
-    <t>['73']</t>
   </si>
   <si>
     <t>['2', '38', '66']</t>
@@ -716,6 +719,18 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['41', '57', '89']</t>
+  </si>
+  <si>
+    <t>['2', '45+3']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['5', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2085,7 +2100,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2276,7 +2291,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2658,7 +2673,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2849,7 +2864,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2939,7 +2954,7 @@
         <v>1.11</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3040,7 +3055,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3127,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT11">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3231,7 +3246,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3321,7 +3336,7 @@
         <v>2.29</v>
       </c>
       <c r="AT12">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3700,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT14">
         <v>1.43</v>
@@ -3804,7 +3819,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -3891,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT15">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3995,7 +4010,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4082,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT16">
         <v>1.29</v>
@@ -4273,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT17">
         <v>0.88</v>
@@ -4377,7 +4392,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4568,7 +4583,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4950,7 +4965,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5040,7 +5055,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU21">
         <v>1.82</v>
@@ -5231,7 +5246,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU22">
         <v>2.13</v>
@@ -5610,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT24">
         <v>2</v>
@@ -5714,7 +5729,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5801,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT25">
         <v>1.25</v>
@@ -5905,7 +5920,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5995,7 +6010,7 @@
         <v>0.86</v>
       </c>
       <c r="AT26">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU26">
         <v>1.74</v>
@@ -6096,7 +6111,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6183,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT27">
         <v>1.43</v>
@@ -6287,7 +6302,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6377,7 +6392,7 @@
         <v>1.71</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU28">
         <v>1.95</v>
@@ -6669,7 +6684,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6756,10 +6771,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT30">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU30">
         <v>2.19</v>
@@ -7051,7 +7066,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7242,7 +7257,7 @@
         <v>107</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7332,7 +7347,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU33">
         <v>1.58</v>
@@ -7433,7 +7448,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7624,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7815,7 +7830,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7902,7 +7917,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
         <v>1.86</v>
@@ -8006,7 +8021,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8093,10 +8108,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT37">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU37">
         <v>1.84</v>
@@ -8197,7 +8212,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8287,7 +8302,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU38">
         <v>1.89</v>
@@ -8579,7 +8594,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8669,7 +8684,7 @@
         <v>0.75</v>
       </c>
       <c r="AT40">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU40">
         <v>1.85</v>
@@ -8770,7 +8785,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8857,10 +8872,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT41">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9051,7 +9066,7 @@
         <v>0.71</v>
       </c>
       <c r="AT42">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>1.79</v>
@@ -9239,7 +9254,7 @@
         <v>1.33</v>
       </c>
       <c r="AS43">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
         <v>1.14</v>
@@ -9343,7 +9358,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>11</v>
@@ -9534,7 +9549,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9725,7 +9740,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9916,7 +9931,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10298,7 +10313,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10489,7 +10504,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10680,7 +10695,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10767,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT51">
         <v>1.43</v>
@@ -11152,7 +11167,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU53">
         <v>2.11</v>
@@ -11253,7 +11268,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11343,7 +11358,7 @@
         <v>2.5</v>
       </c>
       <c r="AT54">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU54">
         <v>1.69</v>
@@ -11826,7 +11841,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12017,7 +12032,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12104,7 +12119,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12298,7 +12313,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU59">
         <v>1.98</v>
@@ -12399,7 +12414,7 @@
         <v>130</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12486,7 +12501,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT60">
         <v>1.75</v>
@@ -12680,7 +12695,7 @@
         <v>2.29</v>
       </c>
       <c r="AT61">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>1.55</v>
@@ -12781,7 +12796,7 @@
         <v>132</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>6</v>
@@ -13059,10 +13074,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU63">
         <v>2.14</v>
@@ -13354,7 +13369,7 @@
         <v>81</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13441,7 +13456,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT65">
         <v>1.5</v>
@@ -13632,7 +13647,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -14208,7 +14223,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU69">
         <v>1.65</v>
@@ -14587,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT71">
         <v>1.29</v>
@@ -14691,7 +14706,7 @@
         <v>138</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14781,7 +14796,7 @@
         <v>1.38</v>
       </c>
       <c r="AT72">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU72">
         <v>1.75</v>
@@ -14969,7 +14984,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT73">
         <v>1.25</v>
@@ -15073,7 +15088,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>5</v>
@@ -15163,7 +15178,7 @@
         <v>1.38</v>
       </c>
       <c r="AT74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
         <v>1.62</v>
@@ -15264,7 +15279,7 @@
         <v>141</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15545,7 +15560,7 @@
         <v>2</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU76">
         <v>2.2</v>
@@ -15733,7 +15748,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT77">
         <v>1.29</v>
@@ -15837,7 +15852,7 @@
         <v>98</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>11</v>
@@ -16028,7 +16043,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16115,10 +16130,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT79">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU79">
         <v>2.1</v>
@@ -16306,7 +16321,7 @@
         <v>1.25</v>
       </c>
       <c r="AS80">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT80">
         <v>1.75</v>
@@ -16410,7 +16425,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16601,7 +16616,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16688,7 +16703,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16792,7 +16807,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16882,7 +16897,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU83">
         <v>2.06</v>
@@ -17070,7 +17085,7 @@
         <v>1.6</v>
       </c>
       <c r="AS84">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT84">
         <v>1.75</v>
@@ -17174,7 +17189,7 @@
         <v>81</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17556,7 +17571,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17646,7 +17661,7 @@
         <v>1.75</v>
       </c>
       <c r="AT87">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU87">
         <v>1.87</v>
@@ -17938,7 +17953,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18216,7 +18231,7 @@
         <v>1.4</v>
       </c>
       <c r="AS90">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT90">
         <v>1.29</v>
@@ -18320,7 +18335,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18511,7 +18526,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18601,7 +18616,7 @@
         <v>0.75</v>
       </c>
       <c r="AT92">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU92">
         <v>1.69</v>
@@ -18789,10 +18804,10 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT93">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU93">
         <v>2.01</v>
@@ -18980,7 +18995,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT94">
         <v>1.25</v>
@@ -19275,7 +19290,7 @@
         <v>127</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19657,7 +19672,7 @@
         <v>155</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -19848,7 +19863,7 @@
         <v>156</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20039,7 +20054,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20129,7 +20144,7 @@
         <v>2.29</v>
       </c>
       <c r="AT100">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU100">
         <v>1.64</v>
@@ -20421,7 +20436,7 @@
         <v>127</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20508,7 +20523,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT102">
         <v>2</v>
@@ -20612,7 +20627,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20702,7 +20717,7 @@
         <v>2</v>
       </c>
       <c r="AT103">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU103">
         <v>1.95</v>
@@ -20803,7 +20818,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21272,7 +21287,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT106">
         <v>1.14</v>
@@ -21376,7 +21391,7 @@
         <v>163</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21463,7 +21478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT107">
         <v>1.5</v>
@@ -21567,7 +21582,7 @@
         <v>105</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>9</v>
@@ -21848,7 +21863,7 @@
         <v>0.75</v>
       </c>
       <c r="AT109">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU109">
         <v>1.65</v>
@@ -22039,7 +22054,7 @@
         <v>1.71</v>
       </c>
       <c r="AT110">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU110">
         <v>1.81</v>
@@ -22140,7 +22155,7 @@
         <v>164</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22227,10 +22242,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT111">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU111">
         <v>1.62</v>
@@ -22331,7 +22346,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>10</v>
@@ -22800,7 +22815,7 @@
         <v>2.29</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT114">
         <v>2</v>
@@ -22994,7 +23009,7 @@
         <v>2.29</v>
       </c>
       <c r="AT115">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU115">
         <v>1.58</v>
@@ -23095,7 +23110,7 @@
         <v>167</v>
       </c>
       <c r="P116" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -23185,7 +23200,7 @@
         <v>1.11</v>
       </c>
       <c r="AT116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU116">
         <v>1.57</v>
@@ -23286,7 +23301,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23477,7 +23492,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23564,7 +23579,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -24050,7 +24065,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q121">
         <v>13</v>
@@ -24137,10 +24152,10 @@
         <v>0.43</v>
       </c>
       <c r="AS121">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT121">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU121">
         <v>1.51</v>
@@ -24383,6 +24398,961 @@
       </c>
       <c r="BK122">
         <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5002332</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45114.79166666666</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>81</v>
+      </c>
+      <c r="P123" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>2.88</v>
+      </c>
+      <c r="U123">
+        <v>2.25</v>
+      </c>
+      <c r="V123">
+        <v>3.6</v>
+      </c>
+      <c r="W123">
+        <v>1.36</v>
+      </c>
+      <c r="X123">
+        <v>3</v>
+      </c>
+      <c r="Y123">
+        <v>2.63</v>
+      </c>
+      <c r="Z123">
+        <v>1.44</v>
+      </c>
+      <c r="AA123">
+        <v>7</v>
+      </c>
+      <c r="AB123">
+        <v>1.1</v>
+      </c>
+      <c r="AC123">
+        <v>2.3</v>
+      </c>
+      <c r="AD123">
+        <v>3.4</v>
+      </c>
+      <c r="AE123">
+        <v>3</v>
+      </c>
+      <c r="AF123">
+        <v>1.03</v>
+      </c>
+      <c r="AG123">
+        <v>13</v>
+      </c>
+      <c r="AH123">
+        <v>1.22</v>
+      </c>
+      <c r="AI123">
+        <v>4</v>
+      </c>
+      <c r="AJ123">
+        <v>1.95</v>
+      </c>
+      <c r="AK123">
+        <v>1.8</v>
+      </c>
+      <c r="AL123">
+        <v>1.62</v>
+      </c>
+      <c r="AM123">
+        <v>2.2</v>
+      </c>
+      <c r="AN123">
+        <v>1.37</v>
+      </c>
+      <c r="AO123">
+        <v>1.28</v>
+      </c>
+      <c r="AP123">
+        <v>1.63</v>
+      </c>
+      <c r="AQ123">
+        <v>1.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.14</v>
+      </c>
+      <c r="AS123">
+        <v>1.38</v>
+      </c>
+      <c r="AT123">
+        <v>1.38</v>
+      </c>
+      <c r="AU123">
+        <v>1.86</v>
+      </c>
+      <c r="AV123">
+        <v>1.67</v>
+      </c>
+      <c r="AW123">
+        <v>3.53</v>
+      </c>
+      <c r="AX123">
+        <v>1.85</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>2.28</v>
+      </c>
+      <c r="BA123">
+        <v>1.27</v>
+      </c>
+      <c r="BB123">
+        <v>1.5</v>
+      </c>
+      <c r="BC123">
+        <v>1.87</v>
+      </c>
+      <c r="BD123">
+        <v>2.45</v>
+      </c>
+      <c r="BE123">
+        <v>3.4</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>7</v>
+      </c>
+      <c r="BH123">
+        <v>6</v>
+      </c>
+      <c r="BI123">
+        <v>10</v>
+      </c>
+      <c r="BJ123">
+        <v>10</v>
+      </c>
+      <c r="BK123">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5002335</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45115.5625</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>172</v>
+      </c>
+      <c r="P124" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>3.1</v>
+      </c>
+      <c r="U124">
+        <v>2.2</v>
+      </c>
+      <c r="V124">
+        <v>3.4</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>2.75</v>
+      </c>
+      <c r="Y124">
+        <v>2.75</v>
+      </c>
+      <c r="Z124">
+        <v>1.4</v>
+      </c>
+      <c r="AA124">
+        <v>8</v>
+      </c>
+      <c r="AB124">
+        <v>1.08</v>
+      </c>
+      <c r="AC124">
+        <v>2.45</v>
+      </c>
+      <c r="AD124">
+        <v>3.1</v>
+      </c>
+      <c r="AE124">
+        <v>2.69</v>
+      </c>
+      <c r="AF124">
+        <v>1.04</v>
+      </c>
+      <c r="AG124">
+        <v>10.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.29</v>
+      </c>
+      <c r="AI124">
+        <v>3.25</v>
+      </c>
+      <c r="AJ124">
+        <v>1.76</v>
+      </c>
+      <c r="AK124">
+        <v>1.88</v>
+      </c>
+      <c r="AL124">
+        <v>1.73</v>
+      </c>
+      <c r="AM124">
+        <v>2</v>
+      </c>
+      <c r="AN124">
+        <v>1.43</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.53</v>
+      </c>
+      <c r="AQ124">
+        <v>1.86</v>
+      </c>
+      <c r="AR124">
+        <v>1.75</v>
+      </c>
+      <c r="AS124">
+        <v>1.63</v>
+      </c>
+      <c r="AT124">
+        <v>1.89</v>
+      </c>
+      <c r="AU124">
+        <v>1.57</v>
+      </c>
+      <c r="AV124">
+        <v>1.49</v>
+      </c>
+      <c r="AW124">
+        <v>3.06</v>
+      </c>
+      <c r="AX124">
+        <v>1.85</v>
+      </c>
+      <c r="AY124">
+        <v>7.5</v>
+      </c>
+      <c r="AZ124">
+        <v>2.29</v>
+      </c>
+      <c r="BA124">
+        <v>1.37</v>
+      </c>
+      <c r="BB124">
+        <v>1.65</v>
+      </c>
+      <c r="BC124">
+        <v>2.13</v>
+      </c>
+      <c r="BD124">
+        <v>2.85</v>
+      </c>
+      <c r="BE124">
+        <v>4.1</v>
+      </c>
+      <c r="BF124">
+        <v>5</v>
+      </c>
+      <c r="BG124">
+        <v>7</v>
+      </c>
+      <c r="BH124">
+        <v>6</v>
+      </c>
+      <c r="BI124">
+        <v>6</v>
+      </c>
+      <c r="BJ124">
+        <v>11</v>
+      </c>
+      <c r="BK124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5002329</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45115.77083333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" t="s">
+        <v>69</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>81</v>
+      </c>
+      <c r="P125" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>8</v>
+      </c>
+      <c r="S125">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2.3</v>
+      </c>
+      <c r="V125">
+        <v>3.6</v>
+      </c>
+      <c r="W125">
+        <v>1.33</v>
+      </c>
+      <c r="X125">
+        <v>3.25</v>
+      </c>
+      <c r="Y125">
+        <v>2.63</v>
+      </c>
+      <c r="Z125">
+        <v>1.44</v>
+      </c>
+      <c r="AA125">
+        <v>6.5</v>
+      </c>
+      <c r="AB125">
+        <v>1.11</v>
+      </c>
+      <c r="AC125">
+        <v>1.84</v>
+      </c>
+      <c r="AD125">
+        <v>3.04</v>
+      </c>
+      <c r="AE125">
+        <v>3.88</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>13</v>
+      </c>
+      <c r="AH125">
+        <v>1.22</v>
+      </c>
+      <c r="AI125">
+        <v>4.2</v>
+      </c>
+      <c r="AJ125">
+        <v>1.72</v>
+      </c>
+      <c r="AK125">
+        <v>2.12</v>
+      </c>
+      <c r="AL125">
+        <v>1.62</v>
+      </c>
+      <c r="AM125">
+        <v>2.2</v>
+      </c>
+      <c r="AN125">
+        <v>1.35</v>
+      </c>
+      <c r="AO125">
+        <v>1.28</v>
+      </c>
+      <c r="AP125">
+        <v>1.66</v>
+      </c>
+      <c r="AQ125">
+        <v>1.25</v>
+      </c>
+      <c r="AR125">
+        <v>0.86</v>
+      </c>
+      <c r="AS125">
+        <v>1.11</v>
+      </c>
+      <c r="AT125">
+        <v>1.13</v>
+      </c>
+      <c r="AU125">
+        <v>1.75</v>
+      </c>
+      <c r="AV125">
+        <v>1.8</v>
+      </c>
+      <c r="AW125">
+        <v>3.55</v>
+      </c>
+      <c r="AX125">
+        <v>1.75</v>
+      </c>
+      <c r="AY125">
+        <v>8</v>
+      </c>
+      <c r="AZ125">
+        <v>2.44</v>
+      </c>
+      <c r="BA125">
+        <v>1.29</v>
+      </c>
+      <c r="BB125">
+        <v>1.52</v>
+      </c>
+      <c r="BC125">
+        <v>1.9</v>
+      </c>
+      <c r="BD125">
+        <v>2.47</v>
+      </c>
+      <c r="BE125">
+        <v>3.5</v>
+      </c>
+      <c r="BF125">
+        <v>4</v>
+      </c>
+      <c r="BG125">
+        <v>2</v>
+      </c>
+      <c r="BH125">
+        <v>7</v>
+      </c>
+      <c r="BI125">
+        <v>6</v>
+      </c>
+      <c r="BJ125">
+        <v>11</v>
+      </c>
+      <c r="BK125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5002331</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45115.875</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>173</v>
+      </c>
+      <c r="P126" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q126">
+        <v>7</v>
+      </c>
+      <c r="R126">
+        <v>6</v>
+      </c>
+      <c r="S126">
+        <v>13</v>
+      </c>
+      <c r="T126">
+        <v>2.88</v>
+      </c>
+      <c r="U126">
+        <v>2.2</v>
+      </c>
+      <c r="V126">
+        <v>3.6</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>3</v>
+      </c>
+      <c r="Y126">
+        <v>2.75</v>
+      </c>
+      <c r="Z126">
+        <v>1.4</v>
+      </c>
+      <c r="AA126">
+        <v>7</v>
+      </c>
+      <c r="AB126">
+        <v>1.1</v>
+      </c>
+      <c r="AC126">
+        <v>1.99</v>
+      </c>
+      <c r="AD126">
+        <v>3</v>
+      </c>
+      <c r="AE126">
+        <v>3.39</v>
+      </c>
+      <c r="AF126">
+        <v>1.04</v>
+      </c>
+      <c r="AG126">
+        <v>12</v>
+      </c>
+      <c r="AH126">
+        <v>1.28</v>
+      </c>
+      <c r="AI126">
+        <v>3.75</v>
+      </c>
+      <c r="AJ126">
+        <v>1.89</v>
+      </c>
+      <c r="AK126">
+        <v>1.72</v>
+      </c>
+      <c r="AL126">
+        <v>1.67</v>
+      </c>
+      <c r="AM126">
+        <v>2.1</v>
+      </c>
+      <c r="AN126">
+        <v>1.4</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.62</v>
+      </c>
+      <c r="AQ126">
+        <v>1.29</v>
+      </c>
+      <c r="AR126">
+        <v>0.71</v>
+      </c>
+      <c r="AS126">
+        <v>1.25</v>
+      </c>
+      <c r="AT126">
+        <v>0.75</v>
+      </c>
+      <c r="AU126">
+        <v>1.79</v>
+      </c>
+      <c r="AV126">
+        <v>1.45</v>
+      </c>
+      <c r="AW126">
+        <v>3.24</v>
+      </c>
+      <c r="AX126">
+        <v>1.85</v>
+      </c>
+      <c r="AY126">
+        <v>8</v>
+      </c>
+      <c r="AZ126">
+        <v>2.28</v>
+      </c>
+      <c r="BA126">
+        <v>1.28</v>
+      </c>
+      <c r="BB126">
+        <v>1.5</v>
+      </c>
+      <c r="BC126">
+        <v>1.87</v>
+      </c>
+      <c r="BD126">
+        <v>2.45</v>
+      </c>
+      <c r="BE126">
+        <v>3.35</v>
+      </c>
+      <c r="BF126">
+        <v>5</v>
+      </c>
+      <c r="BG126">
+        <v>2</v>
+      </c>
+      <c r="BH126">
+        <v>5</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>10</v>
+      </c>
+      <c r="BK126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5002333</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45116.79166666666</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>132</v>
+      </c>
+      <c r="P127" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q127">
+        <v>6</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>10</v>
+      </c>
+      <c r="T127">
+        <v>2.88</v>
+      </c>
+      <c r="U127">
+        <v>2.05</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>2.63</v>
+      </c>
+      <c r="Y127">
+        <v>3.25</v>
+      </c>
+      <c r="Z127">
+        <v>1.33</v>
+      </c>
+      <c r="AA127">
+        <v>10</v>
+      </c>
+      <c r="AB127">
+        <v>1.06</v>
+      </c>
+      <c r="AC127">
+        <v>2.15</v>
+      </c>
+      <c r="AD127">
+        <v>3.05</v>
+      </c>
+      <c r="AE127">
+        <v>3.05</v>
+      </c>
+      <c r="AF127">
+        <v>1.03</v>
+      </c>
+      <c r="AG127">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH127">
+        <v>1.3</v>
+      </c>
+      <c r="AI127">
+        <v>3.2</v>
+      </c>
+      <c r="AJ127">
+        <v>2.15</v>
+      </c>
+      <c r="AK127">
+        <v>1.67</v>
+      </c>
+      <c r="AL127">
+        <v>1.83</v>
+      </c>
+      <c r="AM127">
+        <v>1.83</v>
+      </c>
+      <c r="AN127">
+        <v>1.32</v>
+      </c>
+      <c r="AO127">
+        <v>1.32</v>
+      </c>
+      <c r="AP127">
+        <v>1.71</v>
+      </c>
+      <c r="AQ127">
+        <v>0.86</v>
+      </c>
+      <c r="AR127">
+        <v>0.5</v>
+      </c>
+      <c r="AS127">
+        <v>0.75</v>
+      </c>
+      <c r="AT127">
+        <v>0.78</v>
+      </c>
+      <c r="AU127">
+        <v>1.59</v>
+      </c>
+      <c r="AV127">
+        <v>1.34</v>
+      </c>
+      <c r="AW127">
+        <v>2.93</v>
+      </c>
+      <c r="AX127">
+        <v>1.91</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>2.1</v>
+      </c>
+      <c r="BA127">
+        <v>1.27</v>
+      </c>
+      <c r="BB127">
+        <v>1.49</v>
+      </c>
+      <c r="BC127">
+        <v>1.85</v>
+      </c>
+      <c r="BD127">
+        <v>2.37</v>
+      </c>
+      <c r="BE127">
+        <v>3.3</v>
+      </c>
+      <c r="BF127">
+        <v>3</v>
+      </c>
+      <c r="BG127">
+        <v>6</v>
+      </c>
+      <c r="BH127">
+        <v>11</v>
+      </c>
+      <c r="BI127">
+        <v>4</v>
+      </c>
+      <c r="BJ127">
+        <v>14</v>
+      </c>
+      <c r="BK127">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
